--- a/datos/pi.xlsx
+++ b/datos/pi.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R07429a6c2a134483"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="Re6e1c0c1545c4f99"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -181,13 +181,7 @@
   <x:sheetData>
     <x:row r="1">
       <x:c s="26" t="str">
-        <x:v>IPC, IPCX, IPCX1 , IPC SAE, variación mismo período año anterior, información histórica</x:v>
-      </x:c>
-      <x:c s="26" t="str">
-        <x:v/>
-      </x:c>
-      <x:c s="26" t="str">
-        <x:v/>
+        <x:v>IPC ,IPC SAE e IPC sin volátiles, variación anual, información histórica</x:v>
       </x:c>
       <x:c s="26" t="str">
         <x:v/>
@@ -9212,9 +9206,17 @@
         <x:v>7.2</x:v>
       </x:c>
     </x:row>
+    <x:row r="1130">
+      <x:c s="5" t="d">
+        <x:v>2022-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.7</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:mergeCells>
-    <x:mergeCell ref="A1:E1"/>
+    <x:mergeCell ref="A1:C1"/>
   </x:mergeCells>
 </x:worksheet>
 </file>